--- a/biology/Médecine/Suzanne_Simon/Suzanne_Simon.xlsx
+++ b/biology/Médecine/Suzanne_Simon/Suzanne_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suzanne Simon est une médecin et féministe belge née le 18 mai 1901 à Bruxelles et morte le 12 décembre 1989.
 </t>
@@ -513,17 +525,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Suzanne Simon obtient son doctorat en médecine en 1926[1].
-Carrière et enseignement
-Suzanne Simon effectue des stages en France et aux États-Unis grâce au Fonds de la recherche scientifique (FNRS) puis travaille à l'institut Jules Bordet à partir de 1933[1]. Elle y dirige le service de radiologie médicale et de radiumthérapie à partir de 1940, et en prend officiellement la tête en 1947[1].
-Elle devient chargée de cours à l'Université libre de Bruxelles à partir de 1946, puis professeure extraordinaire en 1950[1]. Elle participe à la fondation du centre national de radiologie et de génétique.
-En 1965, elle traite les brûlures liées aux radiations de la radiothérapie de plusieurs patients avec succès en utilisant la kallicréine[2].
-Féminisme
-Suzanne Simon siège à Euratom et s'oppose à l'évincement des femmes de postes importants du domaine du nucléaire[1].
-Elle est membre de la Fédération belge des femmes diplômées des académies (FBFU) et lègue des fonds pour qu'une bourse destinée à une femme médecin soit créée en son nom[1].
-Autres engagements
-Suzanne Simon est membre du Droit humain, une organisation maçonnique[1].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Simon obtient son doctorat en médecine en 1926.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suzanne_Simon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Simon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière et enseignement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Simon effectue des stages en France et aux États-Unis grâce au Fonds de la recherche scientifique (FNRS) puis travaille à l'institut Jules Bordet à partir de 1933. Elle y dirige le service de radiologie médicale et de radiumthérapie à partir de 1940, et en prend officiellement la tête en 1947.
+Elle devient chargée de cours à l'Université libre de Bruxelles à partir de 1946, puis professeure extraordinaire en 1950. Elle participe à la fondation du centre national de radiologie et de génétique.
+En 1965, elle traite les brûlures liées aux radiations de la radiothérapie de plusieurs patients avec succès en utilisant la kallicréine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suzanne_Simon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Simon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Féminisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Simon siège à Euratom et s'oppose à l'évincement des femmes de postes importants du domaine du nucléaire.
+Elle est membre de la Fédération belge des femmes diplômées des académies (FBFU) et lègue des fonds pour qu'une bourse destinée à une femme médecin soit créée en son nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suzanne_Simon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Simon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres engagements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Simon est membre du Droit humain, une organisation maçonnique.
 </t>
         </is>
       </c>
